--- a/SA1 LRT tables.xlsx
+++ b/SA1 LRT tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="28080" yWindow="2120" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>G2</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Mortgage</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
     <t>Job</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Levels</t>
   </si>
   <si>
-    <t>White Collar, Blue Collar, Student, House, Unemployed/Unknown</t>
-  </si>
-  <si>
     <t>Levels before interacted with Response</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>Race</t>
   </si>
   <si>
-    <t>delinquency</t>
-  </si>
-  <si>
     <t>Male, Female</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t>Tertiary, Secondary, Primary, Unknown</t>
   </si>
   <si>
-    <t>Cell, Other</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cellular, Telephone, Unknown </t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <t>Credit in default</t>
   </si>
   <si>
-    <t>Yes, No</t>
-  </si>
-  <si>
     <t xml:space="preserve">Administer, Management, Entrepreneur, Blue-collar, Technician, Student, Housemaid, Unemployed, Unknown, Self-employeed, Services, Retired </t>
   </si>
   <si>
@@ -111,13 +96,31 @@
     <t>Married, Single, Divorced</t>
   </si>
   <si>
-    <t>Table 3. Likelihood ratio test of whether the samples in two studies are from the same population</t>
-  </si>
-  <si>
     <t>Table 1. Likelihood ratio tests of the dependence of response on the demographic varibles in the first study</t>
   </si>
   <si>
     <t>Table 2. Likelihood ratio tests of the dependence of response on the demographic varibles in the second study</t>
+  </si>
+  <si>
+    <t>Primary phone</t>
+  </si>
+  <si>
+    <t>Cellular, Other</t>
+  </si>
+  <si>
+    <t>White Collar, Blue Collar, Student, House, Unemployed or unknown</t>
+  </si>
+  <si>
+    <t>Personal loan, No personal loan</t>
+  </si>
+  <si>
+    <t>Credit in default, No credit in default</t>
+  </si>
+  <si>
+    <t>Table 3. Likelihood ratio test of whether the samples in the two studies are from the same population</t>
+  </si>
+  <si>
+    <t>Delinquency</t>
   </si>
 </sst>
 </file>
@@ -130,6 +133,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,8 +223,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -282,14 +296,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -304,6 +318,11 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -318,6 +337,11 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -650,7 +674,7 @@
   <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -666,13 +690,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -680,10 +704,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8">
         <v>321.67</v>
@@ -697,36 +721,36 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8">
-        <v>71.97</v>
+        <v>31.92</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="9">
-        <v>2.1829999999999999E-17</v>
+        <v>1.6070000000000001E-8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8">
-        <v>31.92</v>
+        <v>71.97</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="9">
-        <v>1.6070000000000001E-8</v>
+        <v>2.1829999999999999E-17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -734,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="8">
         <v>19.489999999999998</v>
@@ -748,10 +772,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" s="8">
         <v>68.66</v>
@@ -765,76 +789,76 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
-        <v>6.81</v>
+        <v>113.33</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>8.9999999999999993E-3</v>
+      <c r="E8" s="3">
+        <v>1.8309999999999999E-26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>4.08</v>
+        <v>6.81</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>113.33</v>
+        <v>4.08</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
-        <v>1.8309999999999999E-26</v>
+      <c r="E10" s="1">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>1</v>
@@ -842,10 +866,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" s="8">
         <v>698.03</v>
@@ -859,36 +883,36 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
-        <v>193.16</v>
+        <v>226.34</v>
       </c>
       <c r="D15" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="9">
-        <v>1.1359999999999999E-42</v>
+        <v>8.5409999999999995E-49</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" s="8">
-        <v>226.34</v>
+        <v>193.16</v>
       </c>
       <c r="D16" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="9">
-        <v>8.5409999999999995E-49</v>
+        <v>1.1359999999999999E-42</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -896,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="10">
         <v>868.71</v>
@@ -910,10 +934,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="8">
         <v>1221.3699999999999</v>
@@ -922,64 +946,64 @@
         <v>2</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5">
+        <v>24.33</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>8.1259999999999996E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>232.1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.08E-52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1">
-        <v>232.1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.08E-52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="5">
-        <v>24.33</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>8.1259999999999996E-7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>1</v>
@@ -987,10 +1011,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
         <v>861348.2</v>
@@ -1004,13 +1028,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
-        <v>82723.05</v>
+        <v>82340.45</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -1021,13 +1045,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1">
-        <v>82340.45</v>
+        <v>82723.05</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -1041,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1">
         <v>80419.45</v>
@@ -1055,10 +1079,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
         <v>69783.289999999994</v>
@@ -1071,13 +1095,13 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
